--- a/biology/Zoologie/Cervalces/Cervalces.xlsx
+++ b/biology/Zoologie/Cervalces/Cervalces.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cervalces est un genre fossile de cervidés appartenant à la mégafaune d'Amérique du Nord[4] et d'Eurasie[3] au Pléistocène. Il s'est éteint à la fin de la dernière période glaciaire, il y a environ 11 500 ans.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cervalces est un genre fossile de cervidés appartenant à la mégafaune d'Amérique du Nord et d'Eurasie au Pléistocène. Il s'est éteint à la fin de la dernière période glaciaire, il y a environ 11 500 ans.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les premiers fossiles appartenant au genre ont été trouvés vers 1805 par William Clark dans le comté de Boone, dans le Kentucky, aux États-Unis, sur un site connu pour avoir livré plusieurs autres fossiles de la mégafaune nord-américaine. En 1885, William Berryman Scott découvrit un squelette plus complet dans le New Jersey, qui lui permit de décrire le genre Cervalces.
 </t>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cervalces ressemblait à un mélange d'élan, de cerf et de wapiti.
-Cervalces latifrons serait le plus grand cervidé ayant existé, avec une hauteur de 2,1 m au garrot, une longueur d'environ 3 m et un poids d'environ 700 kg[réf. souhaitée]. Il avait toutefois une envergure de bois plus courte (2,5 m) que celle de Megaloceros giganteus[3].
+Cervalces latifrons serait le plus grand cervidé ayant existé, avec une hauteur de 2,1 m au garrot, une longueur d'environ 3 m et un poids d'environ 700 kg[réf. souhaitée]. Il avait toutefois une envergure de bois plus courte (2,5 m) que celle de Megaloceros giganteus.
 </t>
         </is>
       </c>
@@ -574,10 +590,12 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Parmi les quatre espèces connues, C. scotti vivait en Amérique du Nord au Pléistocène[4].
-En Eurasie, le genre est représenté par trois espèces[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Parmi les quatre espèces connues, C. scotti vivait en Amérique du Nord au Pléistocène.
+En Eurasie, le genre est représenté par trois espèces :
 C. gallicus (Pliocène - Pléistocène)
 C. carnutorum (Pléistocène)
 C. latifrons (Pléistocène)</t>
